--- a/annex-2-3/mappings6.0/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkOderAnlageFuerIndustrieUndGewerbe.xlsx
+++ b/annex-2-3/mappings6.0/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkOderAnlageFuerIndustrieUndGewerbe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL\Box Sync\staff\Projects\2017-10 AdV Umsetzung Annex II und III\Alignment_BU2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna Ott\git\adv-inspire-alignments\annex-2-3\mappings6.0\Buildings\2D\Unterlagen\TabellenCurrentUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E731C715-892E-4159-98B9-C0AA5959FE9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D0539-4415-4BB8-86B0-7BF92C5352EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" xr2:uid="{93CD5BDC-55D6-4820-8870-4A79FEFDA825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93CD5BDC-55D6-4820-8870-4A79FEFDA825}"/>
   </bookViews>
   <sheets>
     <sheet name="AX_Bauwerksfunktion_1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t xml:space="preserve">Bezeichner - AX_Bauwerksfunktion_BauwerkOderAnlageFuerIndustrieUndGewerbe </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Hochofen</t>
+  </si>
+  <si>
+    <t>Freileitungsmast</t>
   </si>
 </sst>
 </file>
@@ -140,8 +143,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BFBB46-DB84-4D67-A189-3692FEFB34BE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -493,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -504,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -515,120 +518,130 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1251</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1260</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1270</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1280</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1290</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1330</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1331</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1332</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1333</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1340</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1350</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BCC42474-EED9-4247-A47A-D56A11686E85}"/>
-    <hyperlink ref="C3:C14" r:id="rId2" display="http://inspire.ec.europa.eu/codelist/CurrentUseValue/industrial" xr:uid="{54A32AEE-68C2-4F3C-82F7-6534FE565C64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
